--- a/teaching/traditional_assets/database/data/liechtenstein/liechtenstein_investments_asset_management.xlsx
+++ b/teaching/traditional_assets/database/data/liechtenstein/liechtenstein_investments_asset_management.xlsx
@@ -591,10 +591,10 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0786</v>
+        <v>0.0848</v>
       </c>
       <c r="E2">
-        <v>0.234</v>
+        <v>0.0109</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -603,103 +603,97 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-0.000399208178839852</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>-0.0003660486187712694</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>62.2</v>
+        <v>55.5</v>
       </c>
       <c r="L2">
-        <v>0.1888281724347298</v>
+        <v>0.157312925170068</v>
       </c>
       <c r="M2">
-        <v>57.09999999999999</v>
+        <v>44.07</v>
       </c>
       <c r="N2">
-        <v>0.05962201106818418</v>
+        <v>0.05758526068208546</v>
       </c>
       <c r="O2">
-        <v>0.918006430868167</v>
+        <v>0.794054054054054</v>
       </c>
       <c r="P2">
-        <v>33.8</v>
+        <v>35</v>
       </c>
       <c r="Q2">
-        <v>0.03529288921374125</v>
+        <v>0.04573369920292696</v>
       </c>
       <c r="R2">
-        <v>0.5434083601286173</v>
+        <v>0.6306306306306306</v>
       </c>
       <c r="S2">
-        <v>23.3</v>
+        <v>9.07</v>
       </c>
       <c r="T2">
-        <v>0.4080560420315236</v>
+        <v>0.2058089403222147</v>
       </c>
       <c r="U2">
-        <v>3480.8</v>
+        <v>3704.1</v>
       </c>
       <c r="V2">
-        <v>3.634541088023389</v>
+        <v>4.840062720501765</v>
       </c>
       <c r="W2">
-        <v>0.06454960564549606</v>
+        <v>0.0549777117384844</v>
       </c>
       <c r="X2">
-        <v>0.07539916165415486</v>
+        <v>0.06241529226279503</v>
       </c>
       <c r="Y2">
-        <v>-0.01084955600865881</v>
+        <v>-0.007437580524310636</v>
       </c>
       <c r="Z2">
-        <v>-0.1602652596042715</v>
+        <v>-0.2437305699481865</v>
       </c>
       <c r="AA2">
-        <v>5.86648769151625e-05</v>
+        <v>-0</v>
       </c>
       <c r="AB2">
-        <v>0.04957297854421033</v>
+        <v>0.03846785654426859</v>
       </c>
       <c r="AC2">
-        <v>-0.04951431366729517</v>
+        <v>-0.03846785654426859</v>
       </c>
       <c r="AD2">
-        <v>1023.8</v>
+        <v>915.9</v>
       </c>
       <c r="AE2">
-        <v>35.25749587054923</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>1059.057495870549</v>
+        <v>915.9</v>
       </c>
       <c r="AG2">
-        <v>-2421.742504129451</v>
+        <v>-2788.2</v>
       </c>
       <c r="AH2">
-        <v>0.5251288258697652</v>
+        <v>0.5447894361170593</v>
       </c>
       <c r="AI2">
-        <v>0.5119787571700281</v>
+        <v>0.4671290865507217</v>
       </c>
       <c r="AJ2">
-        <v>1.654147674878789</v>
+        <v>1.378318255969153</v>
       </c>
       <c r="AK2">
-        <v>1.714820575820501</v>
+        <v>1.599288746128255</v>
       </c>
       <c r="AL2">
         <v>0</v>
       </c>
       <c r="AM2">
         <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>147.9479768786127</v>
-      </c>
-      <c r="AP2">
-        <v>-349.9627896140825</v>
       </c>
     </row>
     <row r="3">
@@ -719,10 +713,10 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0786</v>
+        <v>0.0848</v>
       </c>
       <c r="E3">
-        <v>0.234</v>
+        <v>0.0109</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -731,103 +725,97 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-0.000399208178839852</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>-0.0003660486187712694</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>62.2</v>
+        <v>55.5</v>
       </c>
       <c r="L3">
-        <v>0.1888281724347298</v>
+        <v>0.157312925170068</v>
       </c>
       <c r="M3">
-        <v>57.09999999999999</v>
+        <v>44.07</v>
       </c>
       <c r="N3">
-        <v>0.05962201106818418</v>
+        <v>0.05758526068208546</v>
       </c>
       <c r="O3">
-        <v>0.918006430868167</v>
+        <v>0.794054054054054</v>
       </c>
       <c r="P3">
-        <v>33.8</v>
+        <v>35</v>
       </c>
       <c r="Q3">
-        <v>0.03529288921374125</v>
+        <v>0.04573369920292696</v>
       </c>
       <c r="R3">
-        <v>0.5434083601286173</v>
+        <v>0.6306306306306306</v>
       </c>
       <c r="S3">
-        <v>23.3</v>
+        <v>9.07</v>
       </c>
       <c r="T3">
-        <v>0.4080560420315236</v>
+        <v>0.2058089403222147</v>
       </c>
       <c r="U3">
-        <v>3480.8</v>
+        <v>3704.1</v>
       </c>
       <c r="V3">
-        <v>3.634541088023389</v>
+        <v>4.840062720501765</v>
       </c>
       <c r="W3">
-        <v>0.06454960564549606</v>
+        <v>0.0549777117384844</v>
       </c>
       <c r="X3">
-        <v>0.07539916165415486</v>
+        <v>0.06241529226279503</v>
       </c>
       <c r="Y3">
-        <v>-0.01084955600865881</v>
+        <v>-0.007437580524310636</v>
       </c>
       <c r="Z3">
-        <v>-0.1602652596042715</v>
+        <v>-0.2437305699481865</v>
       </c>
       <c r="AA3">
-        <v>5.86648769151625e-05</v>
+        <v>-0</v>
       </c>
       <c r="AB3">
-        <v>0.04957297854421033</v>
+        <v>0.03846785654426859</v>
       </c>
       <c r="AC3">
-        <v>-0.04951431366729517</v>
+        <v>-0.03846785654426859</v>
       </c>
       <c r="AD3">
-        <v>1023.8</v>
+        <v>915.9</v>
       </c>
       <c r="AE3">
-        <v>35.25749587054923</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>1059.057495870549</v>
+        <v>915.9</v>
       </c>
       <c r="AG3">
-        <v>-2421.742504129451</v>
+        <v>-2788.2</v>
       </c>
       <c r="AH3">
-        <v>0.5251288258697652</v>
+        <v>0.5447894361170593</v>
       </c>
       <c r="AI3">
-        <v>0.5119787571700281</v>
+        <v>0.4671290865507217</v>
       </c>
       <c r="AJ3">
-        <v>1.654147674878789</v>
+        <v>1.378318255969153</v>
       </c>
       <c r="AK3">
-        <v>1.714820575820501</v>
+        <v>1.599288746128255</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
         <v>0</v>
-      </c>
-      <c r="AN3">
-        <v>147.9479768786127</v>
-      </c>
-      <c r="AP3">
-        <v>-349.9627896140825</v>
       </c>
     </row>
   </sheetData>
